--- a/input_data/input_data_delays.xlsx
+++ b/input_data/input_data_delays.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7079EB0D-B007-4634-A3D5-5F650F33712C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B53CE0-CBA0-4A82-834C-95B027E4ECD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="6" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -2251,7 +2251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A1B16B-CDA9-46BD-BA51-731AA9327652}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -3706,8 +3706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AEF404-3743-47D7-AC45-7AE3A9FB796E}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/input_data/input_data_delays.xlsx
+++ b/input_data/input_data_delays.xlsx
@@ -1,43 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B53CE0-CBA0-4A82-834C-95B027E4ECD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD1B1A9-3A89-4127-9484-7FC425084D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="6" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="6" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
-    <sheet name="nodes" sheetId="1" r:id="rId2"/>
-    <sheet name="processes" sheetId="2" r:id="rId3"/>
-    <sheet name="groups" sheetId="21" r:id="rId4"/>
-    <sheet name="efficiencies" sheetId="10" r:id="rId5"/>
-    <sheet name="process_topology" sheetId="6" r:id="rId6"/>
-    <sheet name="node_history" sheetId="19" r:id="rId7"/>
-    <sheet name="node_delay" sheetId="25" r:id="rId8"/>
-    <sheet name="node_diffusion" sheetId="24" r:id="rId9"/>
-    <sheet name="reserve_type" sheetId="13" r:id="rId10"/>
-    <sheet name="cf" sheetId="7" r:id="rId11"/>
-    <sheet name="inflow" sheetId="3" r:id="rId12"/>
-    <sheet name="inflow_blocks" sheetId="22" r:id="rId13"/>
-    <sheet name="price" sheetId="4" r:id="rId14"/>
-    <sheet name="markets" sheetId="5" r:id="rId15"/>
-    <sheet name="reserve_realisation" sheetId="23" r:id="rId16"/>
-    <sheet name="market_prices" sheetId="8" r:id="rId17"/>
-    <sheet name="balance_prices" sheetId="20" r:id="rId18"/>
-    <sheet name="risk" sheetId="17" r:id="rId19"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId20"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId21"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId22"/>
-    <sheet name="constraints" sheetId="14" r:id="rId23"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId24"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId25"/>
+    <sheet name="setup" sheetId="26" r:id="rId2"/>
+    <sheet name="nodes" sheetId="1" r:id="rId3"/>
+    <sheet name="processes" sheetId="2" r:id="rId4"/>
+    <sheet name="groups" sheetId="21" r:id="rId5"/>
+    <sheet name="efficiencies" sheetId="10" r:id="rId6"/>
+    <sheet name="process_topology" sheetId="6" r:id="rId7"/>
+    <sheet name="node_history" sheetId="19" r:id="rId8"/>
+    <sheet name="node_delay" sheetId="25" r:id="rId9"/>
+    <sheet name="node_diffusion" sheetId="24" r:id="rId10"/>
+    <sheet name="reserve_type" sheetId="13" r:id="rId11"/>
+    <sheet name="cf" sheetId="7" r:id="rId12"/>
+    <sheet name="inflow" sheetId="3" r:id="rId13"/>
+    <sheet name="inflow_blocks" sheetId="22" r:id="rId14"/>
+    <sheet name="price" sheetId="4" r:id="rId15"/>
+    <sheet name="markets" sheetId="5" r:id="rId16"/>
+    <sheet name="reserve_realisation" sheetId="23" r:id="rId17"/>
+    <sheet name="market_prices" sheetId="8" r:id="rId18"/>
+    <sheet name="balance_prices" sheetId="20" r:id="rId19"/>
+    <sheet name="risk" sheetId="17" r:id="rId20"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId21"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId22"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId23"/>
+    <sheet name="constraints" sheetId="14" r:id="rId24"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId25"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="98">
   <si>
     <t>node</t>
   </si>
@@ -318,6 +319,39 @@
   </si>
   <si>
     <t>dh2,s1</t>
+  </si>
+  <si>
+    <t>use_market_bids</t>
+  </si>
+  <si>
+    <t>use_reserves</t>
+  </si>
+  <si>
+    <t>use_reserve_realisation</t>
+  </si>
+  <si>
+    <t>use_node_dummy_variables</t>
+  </si>
+  <si>
+    <t>use_ramp_dummy_variables</t>
+  </si>
+  <si>
+    <t>common_timesteps</t>
+  </si>
+  <si>
+    <t>common_scenario_name</t>
+  </si>
+  <si>
+    <t>scenario_independent_state</t>
+  </si>
+  <si>
+    <t>scenario_independent_online</t>
+  </si>
+  <si>
+    <t>initial_load</t>
+  </si>
+  <si>
+    <t>initial_flow</t>
   </si>
 </sst>
 </file>
@@ -705,172 +739,172 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44671.124999884254</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44671.166666550918</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>44671.208333217583</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>44671.249999884247</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
     </row>
   </sheetData>
@@ -879,6 +913,36 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA355BEF-1F4B-494A-B089-4FCDFFFA57F7}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0532F8A-0FB4-47AD-98A1-4065D3376432}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -886,9 +950,9 @@
       <selection activeCell="C7" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -901,7 +965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A4637A-7829-48D6-AE54-2E654AB1A427}">
   <dimension ref="A1:L25"/>
   <sheetViews>
@@ -909,20 +973,20 @@
       <selection activeCell="B1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -930,404 +994,143 @@
       <c r="F2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F87DD44-A1AD-4241-AED7-C48CC9DEE2E2}">
-  <dimension ref="A1:G25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="4" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
-      </c>
-      <c r="B2">
-        <v>-2</v>
-      </c>
-      <c r="C2">
-        <f>node_history!C2*-1</f>
-        <v>-3</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
-      </c>
-      <c r="B3">
-        <v>-2</v>
-      </c>
-      <c r="C3">
-        <f>node_history!C3*-1</f>
-        <v>-4</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
-      </c>
-      <c r="B4">
-        <v>-5</v>
-      </c>
-      <c r="C4">
-        <v>-3</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999884254</v>
-      </c>
-      <c r="B5">
-        <v>-7</v>
-      </c>
-      <c r="C5">
-        <v>-2</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666550918</v>
-      </c>
-      <c r="B6">
-        <v>-8</v>
-      </c>
-      <c r="C6">
-        <v>-6</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208333217583</v>
-      </c>
-      <c r="B7">
-        <v>-4</v>
-      </c>
-      <c r="C7">
-        <v>-6</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999884247</v>
-      </c>
-      <c r="B8">
-        <v>-7</v>
-      </c>
-      <c r="C8">
-        <v>-4</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="str">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v/>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="str">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v/>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="str">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v/>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="str">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v/>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="str">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v/>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="str">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v/>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="str">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v/>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="str">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v/>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="str">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v/>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="str">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v/>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="str">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v/>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="str">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v/>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="str">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v/>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="str">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v/>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="str">
-        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v/>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1337,6 +1140,267 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F87DD44-A1AD-4241-AED7-C48CC9DEE2E2}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="4" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+      <c r="B2">
+        <v>-2</v>
+      </c>
+      <c r="C2">
+        <f>node_history!C2*-1</f>
+        <v>-3</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+      <c r="B3">
+        <v>-2</v>
+      </c>
+      <c r="C3">
+        <f>node_history!C3*-1</f>
+        <v>-4</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+      <c r="B4">
+        <v>-5</v>
+      </c>
+      <c r="C4">
+        <v>-3</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999884254</v>
+      </c>
+      <c r="B5">
+        <v>-7</v>
+      </c>
+      <c r="C5">
+        <v>-2</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666550918</v>
+      </c>
+      <c r="B6">
+        <v>-8</v>
+      </c>
+      <c r="C6">
+        <v>-6</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333217583</v>
+      </c>
+      <c r="B7">
+        <v>-4</v>
+      </c>
+      <c r="C7">
+        <v>-6</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999884247</v>
+      </c>
+      <c r="B8">
+        <v>-7</v>
+      </c>
+      <c r="C8">
+        <v>-4</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="str">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v/>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="str">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v/>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="str">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v/>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="str">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v/>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098BD40C-3F1E-4DCA-B153-EDE213641CC0}">
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -1344,82 +1408,82 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="3" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1430,7 +1494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02307C1F-427B-487D-B703-EBF512D7AC27}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -1438,12 +1502,12 @@
       <selection activeCell="B4" sqref="B4:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1451,7 +1515,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1460,7 +1524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1469,7 +1533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1478,7 +1542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
@@ -1487,7 +1551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
@@ -1496,7 +1560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
@@ -1505,7 +1569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
@@ -1514,103 +1578,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1621,7 +1685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3788A93-7501-4F5D-9E8F-38D329CC85EC}">
   <dimension ref="A1:K5"/>
   <sheetViews>
@@ -1629,17 +1693,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -1674,7 +1738,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>79</v>
       </c>
@@ -1709,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1720,7 +1784,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1731,7 +1795,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1747,7 +1811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21372C5-DB60-4318-868D-D4FA20FECD5D}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1755,13 +1819,13 @@
       <selection activeCell="A2" sqref="A2:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>62</v>
       </c>
@@ -1775,13 +1839,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
     </row>
   </sheetData>
@@ -1789,7 +1853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DDD9A-EF34-4108-8532-230729E9C708}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -1797,14 +1861,14 @@
       <selection activeCell="B4" sqref="B4:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="2" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="13" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="2" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="13" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1812,7 +1876,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1821,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1830,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1839,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
@@ -1848,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
@@ -1857,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
@@ -1866,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
@@ -1875,103 +1939,103 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1983,7 +2047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817FDE8F-BC70-48D0-8376-FB52E6946AF1}">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -1991,14 +2055,14 @@
       <selection activeCell="B4" sqref="B4:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="7" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="7" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -2013,7 +2077,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -2025,7 +2089,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -2037,7 +2101,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -2049,7 +2113,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
@@ -2061,7 +2125,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
@@ -2073,7 +2137,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
@@ -2085,7 +2149,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
@@ -2097,103 +2161,103 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2205,7 +2269,88 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC1DC58-DC7E-47B9-9ADD-41CCB9B3E5A5}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -2213,12 +2358,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
@@ -2226,7 +2371,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -2234,7 +2379,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -2247,28 +2392,778 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A1B16B-CDA9-46BD-BA51-731AA9327652}">
-  <dimension ref="A1:O6"/>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="C1" sqref="C1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999884254</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666550918</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333217583</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999884247</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="str">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="str">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="str">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="str">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999884254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666550918</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333217583</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999884247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="str">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="str">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="str">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="str">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="A2:K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="2" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999884254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666550918</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333217583</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999884247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="str">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="str">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="str">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="str">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999884254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666550918</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333217583</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999884247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="str">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="str">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="str">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="str">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A1B16B-CDA9-46BD-BA51-731AA9327652}">
+  <dimension ref="A1:P6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2306,16 +3201,19 @@
         <v>48</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2356,13 +3254,16 @@
         <v>0</v>
       </c>
       <c r="N2" s="6">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6">
         <v>1</v>
       </c>
-      <c r="O2" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -2403,13 +3304,16 @@
         <v>0</v>
       </c>
       <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
         <v>1</v>
       </c>
-      <c r="O3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -2450,13 +3354,16 @@
         <v>0</v>
       </c>
       <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
         <v>1</v>
       </c>
-      <c r="O4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -2502,8 +3409,11 @@
       <c r="O5" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -2515,786 +3425,37 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
-  <dimension ref="A1:B2"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB20090B-02A9-43B7-8D03-9C18D42920EB}">
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:XFD1048576"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
-  <dimension ref="A1:B25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
-      </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
-      </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999884254</v>
-      </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666550918</v>
-      </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208333217583</v>
-      </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999884247</v>
-      </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="str">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="str">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="str">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="str">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="str">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="str">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="str">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="str">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="str">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="str">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="str">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="str">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="str">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="str">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="str">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="str">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="str">
-        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
-  <dimension ref="A1:A25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999884254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666550918</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208333217583</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999884247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="str">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="str">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="str">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="str">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="str">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="str">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="str">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="str">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="str">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="str">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="str">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="str">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="str">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="str">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="str">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="str">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="str">
-        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
-  <dimension ref="A1:M9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="A2:K5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
-  <dimension ref="A1:A25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="2" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999884254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666550918</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208333217583</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999884247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="str">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="str">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="str">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="str">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="str">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="str">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="str">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="str">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="str">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="str">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="str">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="str">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="str">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="str">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="str">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="str">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="str">
-        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
-  <dimension ref="A1:A25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999884254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666550918</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208333217583</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999884247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="str">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="str">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="str">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="str">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="str">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="str">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="str">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="str">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="str">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="str">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="str">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="str">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="str">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="str">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="str">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="str">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="str">
-        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB20090B-02A9-43B7-8D03-9C18D42920EB}">
-  <dimension ref="A1:P8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -3341,10 +3502,13 @@
         <v>41</v>
       </c>
       <c r="P1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -3393,8 +3557,11 @@
       <c r="P2" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -3410,8 +3577,9 @@
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -3427,8 +3595,9 @@
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -3444,8 +3613,9 @@
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -3461,8 +3631,9 @@
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -3478,8 +3649,9 @@
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -3495,13 +3667,14 @@
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6007B83A-95ED-43FB-AC05-C8A15D3323E5}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -3509,9 +3682,9 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -3522,7 +3695,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -3538,7 +3711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB1106B-D567-41FC-8E91-2B4CC5EC9B59}">
   <dimension ref="A1:K1"/>
   <sheetViews>
@@ -3546,9 +3719,9 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -3597,28 +3770,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A86A8A7-FD76-4891-A53C-CBB095359118}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="1" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3643,8 +3816,14 @@
       <c r="H1" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>76</v>
       </c>
@@ -3669,8 +3848,14 @@
       <c r="H2" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>76</v>
       </c>
@@ -3695,167 +3880,11 @@
       <c r="H3" s="5">
         <v>1</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AEF404-3743-47D7-AC45-7AE3A9FB796E}">
-  <dimension ref="A1:G21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11">
-        <f>timeseries!A2</f>
-        <v>44671</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11">
-        <f>timeseries!A3</f>
-        <v>44671.041666666664</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
-        <v>6</v>
-      </c>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
-        <v>7</v>
-      </c>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
-        <v>8</v>
-      </c>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <v>9</v>
-      </c>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <v>10</v>
-      </c>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
-        <v>11</v>
-      </c>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
-        <v>12</v>
-      </c>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
-        <v>13</v>
-      </c>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
-        <v>14</v>
-      </c>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
-        <v>15</v>
-      </c>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
-        <v>16</v>
-      </c>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
-        <v>17</v>
-      </c>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
-        <v>20</v>
+      <c r="I3" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -3865,6 +3894,168 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AEF404-3743-47D7-AC45-7AE3A9FB796E}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <f>timeseries!A2</f>
+        <v>44671</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <f>timeseries!A3</f>
+        <v>44671.041666666664</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1ECC70-7637-4151-9951-7DBCAC6B1EA0}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -3872,14 +4063,14 @@
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>64</v>
       </c>
@@ -3896,7 +4087,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -3911,36 +4102,6 @@
       </c>
       <c r="E2">
         <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA355BEF-1F4B-494A-B089-4FCDFFFA57F7}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.88671875" style="7" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/input_data/input_data_delays.xlsx
+++ b/input_data/input_data_delays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD1B1A9-3A89-4127-9484-7FC425084D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C1FAD8-38DD-4A6C-8170-B60CD679E469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="6" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="100">
   <si>
     <t>node</t>
   </si>
@@ -352,6 +352,12 @@
   </si>
   <si>
     <t>initial_flow</t>
+  </si>
+  <si>
+    <t>node_dummy_variable_cost</t>
+  </si>
+  <si>
+    <t>ramp_dummy_variable_cost</t>
   </si>
 </sst>
 </file>
@@ -739,172 +745,172 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>44671.124999884254</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>44671.166666550918</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>44671.208333217583</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>44671.249999884247</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
     </row>
   </sheetData>
@@ -920,12 +926,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>64</v>
       </c>
@@ -950,9 +956,9 @@
       <selection activeCell="C7" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -973,20 +979,20 @@
       <selection activeCell="B1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -994,139 +1000,139 @@
       <c r="F2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1147,14 +1153,14 @@
       <selection activeCell="B2" sqref="B2:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
-    <col min="4" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="4" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1165,7 +1171,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1180,7 +1186,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1195,7 +1201,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1209,7 +1215,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
@@ -1223,7 +1229,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
@@ -1237,7 +1243,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
@@ -1251,7 +1257,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
@@ -1265,7 +1271,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
@@ -1273,7 +1279,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
@@ -1281,7 +1287,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
@@ -1289,7 +1295,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
@@ -1297,7 +1303,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
@@ -1305,15 +1311,15 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
@@ -1321,7 +1327,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
@@ -1329,7 +1335,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
@@ -1337,7 +1343,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
@@ -1345,7 +1351,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
@@ -1353,7 +1359,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
@@ -1361,7 +1367,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
@@ -1369,7 +1375,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
@@ -1377,7 +1383,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
@@ -1385,7 +1391,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1408,82 +1414,82 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1502,12 +1508,12 @@
       <selection activeCell="B4" sqref="B4:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1515,7 +1521,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1524,7 +1530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1533,7 +1539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1542,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
@@ -1551,7 +1557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
@@ -1560,7 +1566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
@@ -1569,7 +1575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
@@ -1578,103 +1584,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1693,17 +1699,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -1738,7 +1744,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>79</v>
       </c>
@@ -1773,7 +1779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1784,7 +1790,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1795,7 +1801,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1819,13 +1825,13 @@
       <selection activeCell="A2" sqref="A2:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>62</v>
       </c>
@@ -1839,13 +1845,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
     </row>
   </sheetData>
@@ -1861,14 +1867,14 @@
       <selection activeCell="B4" sqref="B4:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
-    <col min="2" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="13" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="2" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="13" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1876,7 +1882,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1885,7 +1891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1894,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1903,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
@@ -1912,7 +1918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
@@ -1921,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
@@ -1930,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
@@ -1939,103 +1945,103 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2055,14 +2061,14 @@
       <selection activeCell="B4" sqref="B4:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="7" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="7" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -2077,7 +2083,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -2089,7 +2095,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -2101,7 +2107,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -2113,7 +2119,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
@@ -2125,7 +2131,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
@@ -2137,7 +2143,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
@@ -2149,7 +2155,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
@@ -2161,103 +2167,103 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2271,19 +2277,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC1DC58-DC7E-47B9-9ADD-41CCB9B3E5A5}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
@@ -2291,7 +2297,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -2299,7 +2305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -2307,7 +2313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -2315,7 +2321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -2323,7 +2329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -2331,16 +2337,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>92</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2358,12 +2380,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
@@ -2371,7 +2393,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -2379,7 +2401,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -2400,9 +2422,9 @@
       <selection activeCell="C1" sqref="C1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
@@ -2410,7 +2432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -2431,162 +2453,162 @@
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2605,155 +2627,155 @@
       <selection activeCell="B1" sqref="B1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2773,14 +2795,14 @@
       <selection activeCell="K5" sqref="A2:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -2794,7 +2816,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -2813,158 +2835,158 @@
       <selection activeCell="B1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
-    <col min="2" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="2" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2983,155 +3005,155 @@
       <selection activeCell="B1" sqref="B1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3150,20 +3172,20 @@
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3213,7 +3235,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3263,7 +3285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -3313,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -3363,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -3413,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -3440,22 +3462,22 @@
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -3508,7 +3530,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -3561,7 +3583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -3579,7 +3601,7 @@
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -3597,7 +3619,7 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -3615,7 +3637,7 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -3633,7 +3655,7 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -3651,7 +3673,7 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -3682,9 +3704,9 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -3695,7 +3717,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -3719,9 +3741,9 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -3774,24 +3796,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A86A8A7-FD76-4891-A53C-CBB095359118}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="7.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3823,7 +3845,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>76</v>
       </c>
@@ -3855,7 +3877,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>76</v>
       </c>
@@ -3901,18 +3923,18 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>23</v>
       </c>
@@ -3923,7 +3945,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -3935,7 +3957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -3947,104 +3969,104 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>7</v>
       </c>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>8</v>
       </c>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>11</v>
       </c>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>12</v>
       </c>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>13</v>
       </c>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>14</v>
       </c>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>15</v>
       </c>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>16</v>
       </c>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>17</v>
       </c>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -4063,14 +4085,14 @@
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>64</v>
       </c>
@@ -4087,7 +4109,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>73</v>
       </c>

--- a/input_data/input_data_delays.xlsx
+++ b/input_data/input_data_delays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C1FAD8-38DD-4A6C-8170-B60CD679E469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B34E27-898E-472D-9F69-00F10D03C590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="10" activeTab="16" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="97">
   <si>
     <t>node</t>
   </si>
@@ -159,12 +159,6 @@
     <t>s1</t>
   </si>
   <si>
-    <t>s2</t>
-  </si>
-  <si>
-    <t>s3</t>
-  </si>
-  <si>
     <t>start_cost</t>
   </si>
   <si>
@@ -244,9 +238,6 @@
   </si>
   <si>
     <t>penalty</t>
-  </si>
-  <si>
-    <t>reserve_product</t>
   </si>
   <si>
     <t>processgroup</t>
@@ -410,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -421,9 +412,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -933,13 +921,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -963,7 +951,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1165,10 +1153,10 @@
         <v>23</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1518,7 +1506,7 @@
         <v>23</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1720,48 +1708,48 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1819,40 +1807,166 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21372C5-DB60-4318-868D-D4FA20FECD5D}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
     <col min="2" max="3" width="6.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999884254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666550918</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333217583</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999884247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="str">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="str">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="str">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="str">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1879,7 +1993,7 @@
         <v>23</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2073,10 +2187,10 @@
         <v>23</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -2279,8 +2393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC1DC58-DC7E-47B9-9ADD-41CCB9B3E5A5}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2291,15 +2405,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2307,7 +2421,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2315,7 +2429,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2323,7 +2437,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2331,7 +2445,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2339,7 +2453,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B7">
         <v>10000</v>
@@ -2347,7 +2461,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -2355,7 +2469,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2363,7 +2477,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2387,15 +2501,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -2403,7 +2517,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2624,7 +2738,7 @@
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2807,13 +2921,13 @@
         <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -3208,7 +3322,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -3217,22 +3331,22 @@
         <v>5</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -3287,7 +3401,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -3387,7 +3501,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -3485,7 +3599,7 @@
         <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>11</v>
@@ -3506,33 +3620,33 @@
         <v>15</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -3711,10 +3825,10 @@
         <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3722,10 +3836,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -3839,15 +3953,15 @@
         <v>17</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>19</v>
@@ -3879,13 +3993,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -3925,8 +4039,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="10" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" customWidth="1"/>
     <col min="9" max="9" width="12.109375" customWidth="1"/>
@@ -3935,21 +4049,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>85</v>
+      <c r="B1" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <f>timeseries!A2</f>
         <v>44671</v>
       </c>
@@ -3958,10 +4072,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <f>timeseries!A3</f>
         <v>44671.041666666664</v>
       </c>
@@ -3970,104 +4084,104 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="G7" s="11"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="G8" s="11"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="G9" s="11"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="G10" s="11"/>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="G11" s="11"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="G12" s="11"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="G13" s="11"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="G14" s="11"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="G15" s="11"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="G16" s="11"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="G17" s="11"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="G18" s="11"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
     </row>
@@ -4094,24 +4208,24 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>

--- a/input_data/input_data_delays.xlsx
+++ b/input_data/input_data_delays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B34E27-898E-472D-9F69-00F10D03C590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C7A6E2-A5D3-4E39-BF91-310E2530052A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="10" activeTab="16" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" firstSheet="9" activeTab="19" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -32,13 +32,14 @@
     <sheet name="reserve_realisation" sheetId="23" r:id="rId17"/>
     <sheet name="market_prices" sheetId="8" r:id="rId18"/>
     <sheet name="balance_prices" sheetId="20" r:id="rId19"/>
-    <sheet name="risk" sheetId="17" r:id="rId20"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId21"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId22"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId23"/>
-    <sheet name="constraints" sheetId="14" r:id="rId24"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId25"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId26"/>
+    <sheet name="reserve_activation_price" sheetId="27" r:id="rId20"/>
+    <sheet name="risk" sheetId="17" r:id="rId21"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId22"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId23"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId24"/>
+    <sheet name="constraints" sheetId="14" r:id="rId25"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId26"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId27"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="97">
   <si>
     <t>node</t>
   </si>
@@ -733,172 +734,172 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44671.124999884254</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44671.166666550918</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>44671.208333217583</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>44671.249999884247</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
     </row>
   </sheetData>
@@ -914,12 +915,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>61</v>
       </c>
@@ -944,9 +945,9 @@
       <selection activeCell="C7" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -967,20 +968,20 @@
       <selection activeCell="B1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -988,139 +989,139 @@
       <c r="F2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1141,14 +1142,14 @@
       <selection activeCell="B2" sqref="B2:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="4" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="4" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1159,7 +1160,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1174,7 +1175,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1189,7 +1190,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1203,7 +1204,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
@@ -1217,7 +1218,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
@@ -1231,7 +1232,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
@@ -1245,7 +1246,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
@@ -1259,7 +1260,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
@@ -1267,7 +1268,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
@@ -1275,7 +1276,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
@@ -1283,7 +1284,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
@@ -1291,7 +1292,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
@@ -1299,15 +1300,15 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
@@ -1315,7 +1316,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
@@ -1323,7 +1324,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
@@ -1331,7 +1332,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
@@ -1339,7 +1340,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
@@ -1347,7 +1348,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
@@ -1355,7 +1356,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
@@ -1363,7 +1364,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
@@ -1371,7 +1372,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
@@ -1379,7 +1380,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1402,82 +1403,82 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="3" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1496,12 +1497,12 @@
       <selection activeCell="B4" sqref="B4:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1509,7 +1510,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1518,7 +1519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1527,7 +1528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1536,7 +1537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
@@ -1545,7 +1546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
@@ -1554,7 +1555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
@@ -1563,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
@@ -1572,103 +1573,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1687,17 +1688,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -1732,7 +1733,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>76</v>
       </c>
@@ -1767,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1778,7 +1779,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1789,7 +1790,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1809,160 +1810,160 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21372C5-DB60-4318-868D-D4FA20FECD5D}">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="2" max="3" width="6.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="2" max="3" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1978,17 +1979,17 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B8"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="2" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="13" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="2" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="13" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1996,7 +1997,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -2005,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -2014,7 +2015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -2023,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
@@ -2032,7 +2033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
@@ -2041,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
@@ -2050,7 +2051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
@@ -2059,103 +2060,103 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2175,14 +2176,14 @@
       <selection activeCell="B4" sqref="B4:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="7" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="7" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -2197,7 +2198,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -2209,7 +2210,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -2221,7 +2222,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -2233,7 +2234,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
@@ -2245,7 +2246,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
@@ -2257,7 +2258,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
@@ -2269,7 +2270,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
@@ -2281,103 +2282,103 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2397,13 +2398,13 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>41</v>
       </c>
@@ -2411,7 +2412,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -2419,7 +2420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -2427,7 +2428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -2435,7 +2436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>87</v>
       </c>
@@ -2443,7 +2444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -2451,7 +2452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -2459,7 +2460,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>96</v>
       </c>
@@ -2467,7 +2468,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -2475,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -2487,6 +2488,225 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F13B50B-2551-418F-9A2B-D489B21327D3}">
+  <dimension ref="A1:BA25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
+      <c r="AJ1"/>
+      <c r="AK1"/>
+      <c r="AL1"/>
+      <c r="AM1"/>
+      <c r="AN1"/>
+      <c r="AO1"/>
+      <c r="AP1"/>
+      <c r="AQ1"/>
+      <c r="AR1"/>
+      <c r="AS1"/>
+      <c r="AT1"/>
+      <c r="AU1"/>
+      <c r="AV1"/>
+      <c r="AW1"/>
+      <c r="AX1"/>
+      <c r="AY1"/>
+      <c r="AZ1"/>
+      <c r="BA1"/>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999884254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666550918</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333217583</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999884247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="str">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="str">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="str">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="str">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -2494,12 +2714,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>41</v>
       </c>
@@ -2507,7 +2727,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -2515,7 +2735,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -2528,7 +2748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2536,9 +2756,9 @@
       <selection activeCell="C1" sqref="C1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
@@ -2546,7 +2766,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -2559,7 +2779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -2567,162 +2787,162 @@
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2733,7 +2953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -2741,155 +2961,155 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2901,7 +3121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M9"/>
   <sheetViews>
@@ -2909,14 +3129,14 @@
       <selection activeCell="K5" sqref="A2:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -2930,7 +3150,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -2941,7 +3161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -2949,158 +3169,158 @@
       <selection activeCell="B1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="2" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="2" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3111,7 +3331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -3119,155 +3339,155 @@
       <selection activeCell="B1" sqref="B1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3286,20 +3506,20 @@
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3349,7 +3569,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3399,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -3449,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -3499,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -3549,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -3576,22 +3796,22 @@
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -3644,7 +3864,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -3697,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -3715,7 +3935,7 @@
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -3733,7 +3953,7 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -3751,7 +3971,7 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -3769,7 +3989,7 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -3787,7 +4007,7 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -3818,9 +4038,9 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -3831,7 +4051,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -3855,9 +4075,9 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -3914,20 +4134,20 @@
       <selection activeCell="I7" sqref="I7:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="1" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3959,7 +4179,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>73</v>
       </c>
@@ -3991,7 +4211,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>73</v>
       </c>
@@ -4037,18 +4257,18 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
@@ -4059,7 +4279,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -4071,7 +4291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -4083,104 +4303,104 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -4199,14 +4419,14 @@
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>61</v>
       </c>
@@ -4223,7 +4443,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>

--- a/input_data/input_data_delays.xlsx
+++ b/input_data/input_data_delays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C7A6E2-A5D3-4E39-BF91-310E2530052A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810763D2-99B2-4A83-810F-00DE30618801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" firstSheet="9" activeTab="19" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="9" activeTab="20" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -33,13 +33,14 @@
     <sheet name="market_prices" sheetId="8" r:id="rId18"/>
     <sheet name="balance_prices" sheetId="20" r:id="rId19"/>
     <sheet name="reserve_activation_price" sheetId="27" r:id="rId20"/>
-    <sheet name="risk" sheetId="17" r:id="rId21"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId22"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId23"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId24"/>
-    <sheet name="constraints" sheetId="14" r:id="rId25"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId26"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId27"/>
+    <sheet name="bid_slots" sheetId="28" r:id="rId21"/>
+    <sheet name="risk" sheetId="17" r:id="rId22"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId23"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId24"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId25"/>
+    <sheet name="constraints" sheetId="14" r:id="rId26"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId27"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="97">
   <si>
     <t>node</t>
   </si>
@@ -2491,7 +2492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F13B50B-2551-418F-9A2B-D489B21327D3}">
   <dimension ref="A1:BA25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -2707,6 +2708,173 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A68E105-1DBA-4EC3-91A2-14DA3D6D8868}">
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999884254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666550918</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333217583</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999884247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="str">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="str">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="str">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="str">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -2748,7 +2916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2779,7 +2947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -2953,7 +3121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -3121,7 +3289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M9"/>
   <sheetViews>
@@ -3161,7 +3329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -3331,7 +3499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
   <dimension ref="A1:A25"/>
   <sheetViews>

--- a/input_data/input_data_delays.xlsx
+++ b/input_data/input_data_delays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810763D2-99B2-4A83-810F-00DE30618801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935CB8C0-3AB4-49FC-A0A7-626F59106F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="9" activeTab="20" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="9" activeTab="9" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="96">
   <si>
     <t>node</t>
   </si>
@@ -249,9 +249,6 @@
   </si>
   <si>
     <t>node2</t>
-  </si>
-  <si>
-    <t>diff_coeff</t>
   </si>
   <si>
     <t>state_min</t>
@@ -910,26 +907,166 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA355BEF-1F4B-494A-B089-4FCDFFFA57F7}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>63</v>
+        <v>23</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999884254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666550918</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333217583</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999884247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="str">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="str">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="str">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="str">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1155,10 +1292,10 @@
         <v>23</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1736,22 +1873,22 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1995,7 +2132,7 @@
         <v>23</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2189,10 +2326,10 @@
         <v>23</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -2415,7 +2552,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2423,7 +2560,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2431,7 +2568,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2439,7 +2576,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2447,7 +2584,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2455,7 +2592,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7">
         <v>10000</v>
@@ -2463,7 +2600,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -2471,7 +2608,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2479,7 +2616,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2711,8 +2848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A68E105-1DBA-4EC3-91A2-14DA3D6D8868}">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3710,7 +3847,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -3725,13 +3862,13 @@
         <v>46</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>49</v>
@@ -3789,7 +3926,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -3889,7 +4026,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -4026,7 +4163,7 @@
         <v>39</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>40</v>
@@ -4034,7 +4171,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -4224,10 +4361,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -4341,15 +4478,15 @@
         <v>17</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>19</v>
@@ -4381,13 +4518,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -4441,10 +4578,10 @@
         <v>23</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
         <v>82</v>
-      </c>
-      <c r="C1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -4602,18 +4739,18 @@
         <v>62</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>

--- a/input_data/input_data_delays.xlsx
+++ b/input_data/input_data_delays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935CB8C0-3AB4-49FC-A0A7-626F59106F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0963BAEA-3406-4C9F-9FBE-A1292B37CB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="9" activeTab="9" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="4" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="97">
   <si>
     <t>node</t>
   </si>
@@ -128,9 +128,6 @@
     <t>sink</t>
   </si>
   <si>
-    <t>VOM_cost</t>
-  </si>
-  <si>
     <t>t</t>
   </si>
   <si>
@@ -146,9 +143,6 @@
     <t>dh2</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>direction</t>
   </si>
   <si>
@@ -257,9 +251,6 @@
     <t>is_temp</t>
   </si>
   <si>
-    <t>T_E_conversion</t>
-  </si>
-  <si>
     <t>delay_t</t>
   </si>
   <si>
@@ -348,6 +339,18 @@
   </si>
   <si>
     <t>ramp_dummy_variable_cost</t>
+  </si>
+  <si>
+    <t>vom_cost</t>
+  </si>
+  <si>
+    <t>t_e_conversion</t>
+  </si>
+  <si>
+    <t>market_type</t>
+  </si>
+  <si>
+    <t>group_type</t>
   </si>
 </sst>
 </file>
@@ -739,7 +742,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -909,7 +912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA355BEF-1F4B-494A-B089-4FCDFFFA57F7}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -920,7 +923,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1080,17 +1083,17 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="A2:C7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1115,7 +1118,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1"/>
     </row>
@@ -1289,13 +1292,13 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1549,7 +1552,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1642,10 +1645,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1823,7 +1826,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1838,57 +1841,57 @@
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>74</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1960,7 +1963,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -2129,10 +2132,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2323,13 +2326,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -2544,15 +2547,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2560,7 +2563,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2568,7 +2571,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2576,7 +2579,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2584,7 +2587,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2592,7 +2595,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B7">
         <v>10000</v>
@@ -2600,7 +2603,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -2608,7 +2611,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2616,7 +2619,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2640,7 +2643,7 @@
   <sheetData>
     <row r="1" spans="1:53" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -2859,7 +2862,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -3026,15 +3029,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -3042,7 +3045,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3065,15 +3068,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3099,7 +3102,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3273,7 +3276,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -3443,16 +3446,16 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -3484,7 +3487,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -3651,7 +3654,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -3808,7 +3811,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3835,7 +3838,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>6</v>
@@ -3847,7 +3850,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -3856,22 +3859,22 @@
         <v>5</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -3926,7 +3929,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -3976,7 +3979,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
@@ -4026,7 +4029,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -4124,13 +4127,13 @@
         <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>14</v>
@@ -4145,33 +4148,33 @@
         <v>15</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -4339,21 +4342,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6007B83A-95ED-43FB-AC05-C8A15D3323E5}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4361,10 +4364,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -4436,7 +4439,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:I8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4463,13 +4466,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
@@ -4478,15 +4481,15 @@
         <v>17</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>19</v>
@@ -4518,13 +4521,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -4575,13 +4578,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -4733,27 +4736,27 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>2</v>

--- a/input_data/input_data_delays.xlsx
+++ b/input_data/input_data_delays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0963BAEA-3406-4C9F-9FBE-A1292B37CB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B51D84-AAC7-4375-9E30-C40BDB0E3A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="4" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="7" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -733,174 +733,176 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39053E69-3A75-490E-847C-66A9CF6C1FC5}">
   <dimension ref="A1:A49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>44671.124999884254</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>44671.166666550918</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>44671.208333217583</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>44671.249999884247</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
     </row>
   </sheetData>
@@ -916,157 +918,157 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1086,9 +1088,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
@@ -1109,20 +1111,20 @@
       <selection activeCell="B1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1130,139 +1132,139 @@
       <c r="F2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1280,17 +1282,17 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C8"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
-    <col min="4" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="4" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -1301,7 +1303,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1316,7 +1318,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1331,7 +1333,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1345,7 +1347,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
@@ -1359,7 +1361,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
@@ -1373,7 +1375,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
@@ -1387,7 +1389,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
@@ -1401,7 +1403,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
@@ -1409,7 +1411,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
@@ -1417,7 +1419,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
@@ -1425,7 +1427,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
@@ -1433,7 +1435,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
@@ -1441,15 +1443,15 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
@@ -1457,7 +1459,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
@@ -1465,7 +1467,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
@@ -1473,7 +1475,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
@@ -1481,7 +1483,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
@@ -1489,7 +1491,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
@@ -1497,7 +1499,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
@@ -1505,7 +1507,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
@@ -1513,7 +1515,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
@@ -1521,7 +1523,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1544,82 +1546,82 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1638,12 +1640,12 @@
       <selection activeCell="B4" sqref="B4:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -1651,7 +1653,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1660,7 +1662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1669,7 +1671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1678,7 +1680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
@@ -1687,7 +1689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
@@ -1696,7 +1698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
@@ -1705,7 +1707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
@@ -1714,103 +1716,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1829,17 +1831,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1874,7 +1876,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>72</v>
       </c>
@@ -1909,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1920,7 +1922,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1931,7 +1933,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1955,156 +1957,156 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
-    <col min="2" max="3" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="2" max="3" width="6.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2123,14 +2125,14 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
-    <col min="2" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="13" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="2" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="13" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -2138,7 +2140,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -2156,7 +2158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -2165,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
@@ -2174,7 +2176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
@@ -2183,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
@@ -2192,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
@@ -2201,103 +2203,103 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2317,14 +2319,14 @@
       <selection activeCell="B4" sqref="B4:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="7" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="7" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -2339,7 +2341,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -2351,7 +2353,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -2363,7 +2365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -2375,7 +2377,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
@@ -2387,7 +2389,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
@@ -2399,7 +2401,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
@@ -2411,7 +2413,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
@@ -2423,103 +2425,103 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2539,13 +2541,13 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
@@ -2553,7 +2555,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -2561,7 +2563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -2569,7 +2571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -2577,7 +2579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -2585,7 +2587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -2593,7 +2595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -2601,7 +2603,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -2609,7 +2611,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>85</v>
       </c>
@@ -2617,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -2636,12 +2638,12 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -2698,145 +2700,145 @@
       <c r="AZ1"/>
       <c r="BA1"/>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2855,155 +2857,155 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3022,12 +3024,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
@@ -3035,7 +3037,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -3043,7 +3045,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -3064,9 +3066,9 @@
       <selection activeCell="C1" sqref="C1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -3074,7 +3076,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -3095,162 +3097,162 @@
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3269,155 +3271,155 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3437,14 +3439,14 @@
       <selection activeCell="K5" sqref="A2:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -3458,7 +3460,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -3477,158 +3479,158 @@
       <selection activeCell="B1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
-    <col min="2" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="2" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3647,155 +3649,155 @@
       <selection activeCell="B1" sqref="B1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3814,20 +3816,20 @@
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3877,7 +3879,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3927,7 +3929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -3977,7 +3979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -4027,7 +4029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -4104,22 +4106,22 @@
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -4172,7 +4174,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -4225,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -4243,7 +4245,7 @@
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -4261,7 +4263,7 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -4279,7 +4281,7 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -4297,7 +4299,7 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -4315,7 +4317,7 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -4342,13 +4344,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6007B83A-95ED-43FB-AC05-C8A15D3323E5}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>96</v>
       </c>
@@ -4359,7 +4361,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -4383,9 +4385,9 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -4442,20 +4444,20 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="7.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -4487,7 +4489,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>69</v>
       </c>
@@ -4519,7 +4521,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>69</v>
       </c>
@@ -4561,22 +4563,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AEF404-3743-47D7-AC45-7AE3A9FB796E}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>22</v>
       </c>
@@ -4587,128 +4589,126 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
-        <f>timeseries!A2</f>
+      <c r="B2" s="7">
         <v>44671</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
-        <f>timeseries!A3</f>
+      <c r="B3" s="7">
         <v>44671.041666666664</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -4724,17 +4724,17 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>59</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>

--- a/input_data/input_data_delays.xlsx
+++ b/input_data/input_data_delays.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B51D84-AAC7-4375-9E30-C40BDB0E3A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BD5D07-8ED9-47AF-9F72-BEACBF700A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="7" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="98">
   <si>
     <t>node</t>
   </si>
@@ -317,9 +317,6 @@
     <t>use_ramp_dummy_variables</t>
   </si>
   <si>
-    <t>common_timesteps</t>
-  </si>
-  <si>
     <t>common_scenario_name</t>
   </si>
   <si>
@@ -351,6 +348,12 @@
   </si>
   <si>
     <t>group_type</t>
+  </si>
+  <si>
+    <t>common_start_timesteps</t>
+  </si>
+  <si>
+    <t>common_end_timesteps</t>
   </si>
 </sst>
 </file>
@@ -737,172 +740,172 @@
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44671.124999884254</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44671.166666550918</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>44671.208333217583</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>44671.249999884247</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
     </row>
   </sheetData>
@@ -918,157 +921,157 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1088,9 +1091,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
@@ -1111,20 +1114,20 @@
       <selection activeCell="B1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1132,139 +1135,139 @@
       <c r="F2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1285,14 +1288,14 @@
       <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="4" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="4" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -1303,7 +1306,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1318,7 +1321,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1333,7 +1336,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1347,7 +1350,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
@@ -1361,7 +1364,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
@@ -1375,7 +1378,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
@@ -1389,7 +1392,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
@@ -1403,7 +1406,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
@@ -1411,7 +1414,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
@@ -1419,7 +1422,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
@@ -1427,7 +1430,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
@@ -1435,7 +1438,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
@@ -1443,15 +1446,15 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
@@ -1459,7 +1462,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
@@ -1467,7 +1470,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
@@ -1475,7 +1478,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
@@ -1483,7 +1486,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
@@ -1491,7 +1494,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
@@ -1499,7 +1502,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
@@ -1507,7 +1510,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
@@ -1515,7 +1518,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
@@ -1523,7 +1526,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1546,82 +1549,82 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="3" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1640,12 +1643,12 @@
       <selection activeCell="B4" sqref="B4:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -1653,7 +1656,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1662,7 +1665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1671,7 +1674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1680,7 +1683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
@@ -1689,7 +1692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
@@ -1698,7 +1701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
@@ -1707,7 +1710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
@@ -1716,103 +1719,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1831,22 +1834,22 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1876,7 +1879,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>72</v>
       </c>
@@ -1911,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1922,7 +1925,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1933,7 +1936,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1957,156 +1960,156 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="2" max="3" width="6.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="2" max="3" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2125,14 +2128,14 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="2" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="13" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="2" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="13" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -2140,7 +2143,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -2149,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -2158,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -2167,7 +2170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
@@ -2176,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
@@ -2185,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
@@ -2194,7 +2197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
@@ -2203,103 +2206,103 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2319,14 +2322,14 @@
       <selection activeCell="B4" sqref="B4:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="7" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="7" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -2341,7 +2344,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -2353,7 +2356,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -2365,7 +2368,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -2377,7 +2380,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
@@ -2389,7 +2392,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
@@ -2401,7 +2404,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
@@ -2413,7 +2416,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
@@ -2425,103 +2428,103 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2535,19 +2538,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC1DC58-DC7E-47B9-9ADD-41CCB9B3E5A5}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
@@ -2555,7 +2558,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -2563,7 +2566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -2571,7 +2574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -2579,7 +2582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -2587,7 +2590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -2595,33 +2598,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7">
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8">
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>85</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2638,12 +2649,12 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -2700,145 +2711,145 @@
       <c r="AZ1"/>
       <c r="BA1"/>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2857,155 +2868,155 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3024,12 +3035,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
@@ -3037,7 +3048,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -3045,7 +3056,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -3066,9 +3077,9 @@
       <selection activeCell="C1" sqref="C1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -3076,7 +3087,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -3097,162 +3108,162 @@
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3271,155 +3282,155 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3439,14 +3450,14 @@
       <selection activeCell="K5" sqref="A2:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -3460,7 +3471,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -3479,158 +3490,158 @@
       <selection activeCell="B1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="2" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="2" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3649,155 +3660,155 @@
       <selection activeCell="B1" sqref="B1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999884254</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666550918</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333217583</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999884247</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3816,20 +3827,20 @@
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3867,19 +3878,19 @@
         <v>44</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>62</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3929,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -3979,7 +3990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -4029,7 +4040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -4079,7 +4090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -4106,22 +4117,22 @@
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -4168,13 +4179,13 @@
         <v>37</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -4227,7 +4238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -4245,7 +4256,7 @@
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -4263,7 +4274,7 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -4281,7 +4292,7 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -4299,7 +4310,7 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -4317,7 +4328,7 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -4348,11 +4359,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>50</v>
@@ -4361,7 +4372,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -4385,9 +4396,9 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -4444,20 +4455,20 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="1" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -4474,7 +4485,7 @@
         <v>12</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
@@ -4483,13 +4494,13 @@
         <v>17</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>69</v>
       </c>
@@ -4521,7 +4532,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>69</v>
       </c>
@@ -4563,22 +4574,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AEF404-3743-47D7-AC45-7AE3A9FB796E}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>22</v>
       </c>
@@ -4589,7 +4600,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -4600,7 +4611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -4611,104 +4622,104 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -4727,14 +4738,14 @@
       <selection activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>59</v>
       </c>
@@ -4751,7 +4762,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
